--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_nested.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_nested.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/git/reportserver-samples/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E67180-EC6B-8E4B-8AF9-7CBA133DA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155DC80-EF18-4144-8F33-28F7673B1855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="16820" xr2:uid="{1CB611AB-0FA2-4BD9-BB46-7BDCE764CC6B}"/>
   </bookViews>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>${customer.t_agg_customer_cus_contactfirstname}</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t>${stateGroup.item.t_agg_customer_cus_state}</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t>(Last tested with: ReportServer 4.3.0-6083) </t>
   </si>
 </sst>
 </file>
@@ -853,13 +859,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1179,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC5901-C705-4E68-A57A-D1E46257885B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1193,10 +1199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,11 +1222,11 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1229,8 +1235,18 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
